--- a/biology/Botanique/Magnolia_baillonii/Magnolia_baillonii.xlsx
+++ b/biology/Botanique/Magnolia_baillonii/Magnolia_baillonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia baillonii est une espèce d'arbres de la famille des Magnoliaceae vivant en Asie du Sud-Est.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre peut mesurer jusqu'à 35 m de haut. Il se développe vite et peut s'adapter à des milieux et à des sols très différents. Il fleurit de juin à octobre : les fleurs sont blanches et parfumées[2] ; et il produit des fruits de mai à juillet[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre peut mesurer jusqu'à 35 m de haut. Il se développe vite et peut s'adapter à des milieux et à des sols très différents. Il fleurit de juin à octobre : les fleurs sont blanches et parfumées ; et il produit des fruits de mai à juillet.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente en Inde (état d'Assam), en Chine (province du Yunnan), en Birmanie, en Thaïlande, au Cambodge et au Vietnam[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente en Inde (état d'Assam), en Chine (province du Yunnan), en Birmanie, en Thaïlande, au Cambodge et au Vietnam.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans plusieurs aires protégées : le Doi Luang National Park (en), le Parc national de Khao Yai, le Thong Pha Phum National Park (en) et le Parc national de Kaeng Krachan (Thaïlande)[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans plusieurs aires protégées : le Doi Luang National Park (en), le Parc national de Khao Yai, le Thong Pha Phum National Park (en) et le Parc national de Kaeng Krachan (Thaïlande)
 </t>
         </is>
       </c>
@@ -604,11 +622,13 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 décembre 2013)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 décembre 2013) :
 Magnolia baillonii Pierre (1880)
-Selon Tropicos                                           (30 décembre 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (30 décembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Magnolia baillonii var. bailingia Sima &amp; H.Jiang</t>
         </is>
       </c>
